--- a/data/Missing Calves.xlsx
+++ b/data/Missing Calves.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>CalfID</t>
   </si>
@@ -420,16 +420,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="6" max="10" width="20" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -525,39 +525,39 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3">
-        <v>45495</v>
+        <v>45497</v>
       </c>
       <c r="G3" s="3">
-        <v>45495</v>
+        <v>45497</v>
       </c>
       <c r="H3" s="2">
-        <v>61371953</v>
+        <v>61371958</v>
       </c>
       <c r="I3" s="4">
-        <v>0.36458333333333331</v>
+        <v>0.33055555555555555</v>
       </c>
       <c r="J3" s="4">
+        <v>0.34652777777777777</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="L3" s="3">
+        <v>45500</v>
+      </c>
+      <c r="M3" s="4">
         <v>0.3972222222222222</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0.72569444444444453</v>
-      </c>
-      <c r="L3" s="3">
-        <v>45498</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0.37152777777777773</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -569,7 +569,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" s="3">
         <v>45497</v>
@@ -578,27 +578,27 @@
         <v>45497</v>
       </c>
       <c r="H4" s="2">
-        <v>61371958</v>
+        <v>61371959</v>
       </c>
       <c r="I4" s="4">
-        <v>0.33055555555555555</v>
+        <v>0.32777777777777778</v>
       </c>
       <c r="J4" s="4">
-        <v>0.34652777777777777</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="K4" s="4">
-        <v>0.68055555555555547</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="L4" s="3">
         <v>45500</v>
       </c>
       <c r="M4" s="4">
-        <v>0.3972222222222222</v>
+        <v>0.39513888888888887</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -607,39 +607,39 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="G5" s="3">
-        <v>45497</v>
+        <v>45498</v>
       </c>
       <c r="H5" s="2">
-        <v>61371959</v>
+        <v>61371963</v>
       </c>
       <c r="I5" s="4">
-        <v>0.32777777777777778</v>
+        <v>0.27291666666666664</v>
       </c>
       <c r="J5" s="4">
-        <v>0.32500000000000001</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="K5" s="4">
-        <v>0.65972222222222221</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="L5" s="3">
-        <v>45500</v>
+        <v>45501</v>
       </c>
       <c r="M5" s="4">
-        <v>0.39513888888888887</v>
+        <v>0.41111111111111115</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
@@ -651,75 +651,37 @@
         <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3">
-        <v>45498</v>
+        <v>45497</v>
       </c>
       <c r="G6" s="3">
-        <v>45498</v>
+        <v>45497</v>
       </c>
       <c r="H6" s="2">
-        <v>61371963</v>
+        <v>61371967</v>
       </c>
       <c r="I6" s="4">
-        <v>0.27291666666666664</v>
+        <v>0.52222222222222225</v>
       </c>
       <c r="J6" s="4">
-        <v>0.2986111111111111</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="K6" s="4">
-        <v>0.63541666666666663</v>
+        <v>0.87638888888888899</v>
       </c>
       <c r="L6" s="3">
-        <v>45501</v>
+        <v>45500</v>
       </c>
       <c r="M6" s="4">
-        <v>0.41111111111111115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3">
-        <v>45497</v>
-      </c>
-      <c r="G7" s="3">
-        <v>45497</v>
-      </c>
-      <c r="H7" s="2">
-        <v>61371967</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0.52222222222222225</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0.53749999999999998</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0.87638888888888899</v>
-      </c>
-      <c r="L7" s="3">
-        <v>45500</v>
-      </c>
-      <c r="M7" s="4">
         <v>0.39930555555555558</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A12:M29">
+    <sortCondition ref="H12:H29"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>